--- a/D&D data.xlsx
+++ b/D&D data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\melon\Documents\Yr 12 Further\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\melon\Documents\GitHub\DnD_datatask_partone\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,9 +29,6 @@
     <t>Player</t>
   </si>
   <si>
-    <t>Perserverance</t>
-  </si>
-  <si>
     <t>Flame Whisperer</t>
   </si>
   <si>
@@ -45,6 +42,9 @@
   </si>
   <si>
     <t>Muscle Mass %</t>
+  </si>
+  <si>
+    <t>Perseverance</t>
   </si>
 </sst>
 </file>
@@ -137,6 +137,32 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Perseverance</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -184,7 +210,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Perserverance</c:v>
+                  <c:v>Perseverance</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2617,7 +2643,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2631,12 +2657,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>12</v>
@@ -2644,7 +2670,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>17</v>
@@ -2652,7 +2678,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>7</v>
@@ -2660,7 +2686,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>14</v>
@@ -2671,12 +2697,12 @@
         <v>0</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B18" s="1">
         <v>42</v>
@@ -2684,7 +2710,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B19" s="1">
         <v>61</v>
@@ -2692,7 +2718,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20" s="1">
         <v>72</v>
@@ -2700,7 +2726,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B21" s="1">
         <v>66</v>
